--- a/encoder_pipeline.xlsx
+++ b/encoder_pipeline.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main\Faithbillion\VPA_design_documents\VPA_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88FE4FF4-10A9-4F37-9C95-3CF01FDD2995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF441ED-070A-4BD5-B4F0-2B53DD04CED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="10" windowWidth="25580" windowHeight="15260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="17540" windowHeight="15370" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="流水线" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="流水线 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="pixel_operation_pipeline" sheetId="5" r:id="rId3"/>
+    <sheet name="流水线" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="171">
   <si>
     <t>备注</t>
   </si>
@@ -443,13 +445,148 @@
   </si>
   <si>
     <t>（A+B ）1</t>
+  </si>
+  <si>
+    <t>uv_addr(0)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>uv_value 16x8x8(-1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>uv_value 16x8x8(0)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamma_addr x32(0)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_uv_value 32x8bit(0)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_fw(0)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>logic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E11*w11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E12*w12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E21*w21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E22*w22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E11*w11 + E12*w12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E21*w21 + E22*w22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E11*w11 + E12*w12 + E21*w21 + E22*w22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP5</t>
+  </si>
+  <si>
+    <t>DSP6</t>
+  </si>
+  <si>
+    <t>DSP7</t>
+  </si>
+  <si>
+    <t>DSP8</t>
+  </si>
+  <si>
+    <t>dudv-&gt;w11,w12,w21,w22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(E11*w11 + E12*w12 + E21*w21 + E22*w22) * w * W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP9</t>
+  </si>
+  <si>
+    <t>w(0)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>w(-1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_buffer(6bit*8)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamma_value x32(0)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>E 12bitx8(0)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>块输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>w+w_base</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(w+w_base) * W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel_operation_buffer后处理单元</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +598,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -469,6 +607,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -477,6 +616,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -513,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -535,6 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -817,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1341,11 +1497,352 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4B2B2C-8105-42CE-84B4-96DC47D54229}">
+  <dimension ref="A1:X11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.58203125" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.4140625" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="22.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="O9" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="O10" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9767F850-6CD1-4F82-8EAB-93DF07B85851}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1518,11 +2015,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
